--- a/TrainingLogFormat.xlsx
+++ b/TrainingLogFormat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="17175" windowHeight="10755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="17175" windowHeight="10755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Client Details" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TrainingLogFormat.xlsx
+++ b/TrainingLogFormat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="17175" windowHeight="10755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="17175" windowHeight="10755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Client Details" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="56">
   <si>
     <t>Day</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>Leg Press</t>
+  </si>
+  <si>
+    <t>parallel to ground</t>
+  </si>
+  <si>
+    <t>pause at lowest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slow negatives </t>
   </si>
 </sst>
 </file>
@@ -568,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -798,6 +807,15 @@
       <c r="G11" t="s">
         <v>51</v>
       </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="E12" t="s">
@@ -805,6 +823,15 @@
       </c>
       <c r="G12" t="s">
         <v>52</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/TrainingLogFormat.xlsx
+++ b/TrainingLogFormat.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="17175" windowHeight="10755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="17175" windowHeight="10755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Client Details" sheetId="1" r:id="rId1"/>
     <sheet name="Plan Details" sheetId="5" r:id="rId2"/>
     <sheet name="Logs" sheetId="4" r:id="rId3"/>
+    <sheet name="Logs1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="60">
   <si>
     <t>Day</t>
   </si>
@@ -184,6 +185,18 @@
   </si>
   <si>
     <t xml:space="preserve">slow negatives </t>
+  </si>
+  <si>
+    <t>Workout 5</t>
+  </si>
+  <si>
+    <t>Workout 6</t>
+  </si>
+  <si>
+    <t>Workout 7</t>
+  </si>
+  <si>
+    <t>Workout 8</t>
   </si>
 </sst>
 </file>
@@ -577,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -853,10 +866,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -881,7 +894,7 @@
     <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,8 +913,20 @@
       <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -956,8 +981,56 @@
       <c r="R2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="C3">
         <v>1</v>
       </c>
@@ -1007,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:34">
       <c r="C4">
         <v>2</v>
       </c>
@@ -1057,7 +1130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:34">
       <c r="C5">
         <v>3</v>
       </c>
@@ -1107,7 +1180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:34">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -1160,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:34">
       <c r="C7">
         <v>1</v>
       </c>
@@ -1210,7 +1283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:34">
       <c r="C8">
         <v>2</v>
       </c>
@@ -1260,7 +1333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:34">
       <c r="C9">
         <v>3</v>
       </c>
@@ -1310,7 +1383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:34">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1366,7 +1439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:34">
       <c r="C11">
         <v>1</v>
       </c>
@@ -1416,7 +1489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:34">
       <c r="C12">
         <v>2</v>
       </c>
@@ -1466,7 +1539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:34">
       <c r="C13">
         <v>3</v>
       </c>
@@ -1516,7 +1589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:34">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -1569,7 +1642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:34">
       <c r="C15">
         <v>1</v>
       </c>
@@ -1619,7 +1692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:34">
       <c r="C16">
         <v>2</v>
       </c>
@@ -1721,10 +1794,469 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 M1:M1048576 Q1:Q1048576 E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 M1:M1048576 Q1:Q1048576 E1:E1048576 U2 Y2 AC2 AG2">
       <formula1>"kg,lbs"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TrainingLogFormat.xlsx
+++ b/TrainingLogFormat.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="17175" windowHeight="10755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="17175" windowHeight="10755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Client Details" sheetId="1" r:id="rId1"/>
     <sheet name="Plan Details" sheetId="5" r:id="rId2"/>
     <sheet name="Logs" sheetId="4" r:id="rId3"/>
     <sheet name="Logs1" sheetId="6" r:id="rId4"/>
+    <sheet name="Logs2" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="64">
   <si>
     <t>Day</t>
   </si>
@@ -197,6 +198,18 @@
   </si>
   <si>
     <t>Workout 8</t>
+  </si>
+  <si>
+    <t>Sets(1)</t>
+  </si>
+  <si>
+    <t>Weights(1)</t>
+  </si>
+  <si>
+    <t>Unit(1)</t>
+  </si>
+  <si>
+    <t>Sets(2)</t>
   </si>
 </sst>
 </file>
@@ -869,7 +882,7 @@
   <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection sqref="A1:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1807,16 +1820,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
@@ -1837,13 +1852,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2052,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -2259,4 +2274,218 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I7 E1:E7">
+      <formula1>"kg,lbs"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>